--- a/7th-semester/Digital Logic Design/project/ISA.xlsx
+++ b/7th-semester/Digital Logic Design/project/ISA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatiherkamdinler/workspace/marmara-cse/7th-semester/Digital Logic Design/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA03ECC3-4825-A844-9021-948E8E81EEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657DFC9-0135-D942-A9CB-B0716E6DA31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{FF75021E-3701-684C-B95A-BAE88D2BC67F}"/>
   </bookViews>
